--- a/Figure 1.data_only.xlsx
+++ b/Figure 1.data_only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Austin\!Phytophthora sojae pathotype survey\!Pathotype paper WIP\Figures for paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80614710-427C-4FD9-8945-3AF698D00FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951C72B1-2EC9-4D0F-BC2D-ADD524281EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25560" yWindow="3855" windowWidth="21600" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
-    <t>paper</t>
-  </si>
-  <si>
     <t>allele</t>
   </si>
   <si>
@@ -84,10 +81,13 @@
     <t>rps</t>
   </si>
   <si>
-    <t>McCoy et al</t>
-  </si>
-  <si>
-    <t>Kaitany et al</t>
+    <t>McCoy et al 2021</t>
+  </si>
+  <si>
+    <t>Kaitany et al 2001</t>
+  </si>
+  <si>
+    <t>study</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,21 +418,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -440,10 +440,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>95.18</v>
@@ -451,10 +451,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>89.16</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>87.95</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>85.54</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>93.98</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>66.27</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>31.33</v>
@@ -517,10 +517,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>92.77</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>25.3</v>
@@ -539,10 +539,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>36.14</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>63.86</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>55.42</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>98.8</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>100</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>78</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>26</v>
@@ -616,10 +616,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>46</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>46</v>
@@ -638,10 +638,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>31</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>39</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>23</v>
@@ -671,10 +671,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>19</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>55</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>40</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>45</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>34</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>79</v>
